--- a/test/MAPE_phase1.xlsx
+++ b/test/MAPE_phase1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="3120" windowWidth="21360" windowHeight="10380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>1-0 MAPE</t>
   </si>
@@ -42,6 +42,30 @@
   </si>
   <si>
     <t>3-1 MAPE</t>
+  </si>
+  <si>
+    <t>A-2 MAPE</t>
+  </si>
+  <si>
+    <t>B-1 MAPE</t>
+  </si>
+  <si>
+    <t>C-1 MAPE</t>
+  </si>
+  <si>
+    <t>A-3 MAPE</t>
+  </si>
+  <si>
+    <t>B-3 MAPE</t>
+  </si>
+  <si>
+    <t>C-3 MAPE</t>
+  </si>
+  <si>
+    <t>Traffic Time</t>
+  </si>
+  <si>
+    <t>Volume</t>
   </si>
 </sst>
 </file>
@@ -365,58 +389,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0.347740041</v>
+      <c r="B1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.161563229</v>
+        <v>0.347740041</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.27926796500000001</v>
+        <v>0.161563229</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.230932414</v>
+        <v>0.27926796500000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.230932414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0.166940383</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <f>AVERAGE(B1:B5)</f>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <f>AVERAGE(B2:B6)</f>
         <v>0.2372888064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0.18788053900000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0.250894797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0.24738831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.18434769500000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0.241739483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0.27289756100000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <f>AVERAGE(B10:B15)</f>
+        <v>0.23085806416666665</v>
       </c>
     </row>
   </sheetData>
